--- a/src/16t/assets/BEAM_1.xlsx
+++ b/src/16t/assets/BEAM_1.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t xml:space="preserve"> 二级BOM  主梁，11˂S≤11.5 ，4.4˂H0≤7.5m（图号：M61632）</t>
   </si>
   <si>
-    <t>7004-00466</t>
+    <t>7004-00613</t>
   </si>
   <si>
     <t>主梁</t>
@@ -91,7 +91,7 @@
     <t>M310501.4</t>
   </si>
   <si>
-    <t>7004-00537</t>
+    <t>7004-00697</t>
   </si>
   <si>
     <t>工字钢 I28b</t>
@@ -106,7 +106,7 @@
     <t>Q235BF</t>
   </si>
   <si>
-    <t>7004-00538</t>
+    <t>7004-00698</t>
   </si>
   <si>
     <t>侧盖板</t>
@@ -130,7 +130,7 @@
     <t>借NF100-00</t>
   </si>
   <si>
-    <t>7004-00539</t>
+    <t>7004-00699</t>
   </si>
   <si>
     <t xml:space="preserve">U型槽 </t>
@@ -139,7 +139,7 @@
     <t>U型槽 6×450×585-(S+26)</t>
   </si>
   <si>
-    <t>7004-00540</t>
+    <t>7004-00700</t>
   </si>
   <si>
     <t>隔板</t>
@@ -148,7 +148,7 @@
     <t>隔板 5×438×644</t>
   </si>
   <si>
-    <t>7004-00541</t>
+    <t>7004-00701</t>
   </si>
   <si>
     <t>燕尾板</t>
@@ -157,7 +157,7 @@
     <t>燕尾板 8×520×450</t>
   </si>
   <si>
-    <t>7004-00542</t>
+    <t>7004-00702</t>
   </si>
   <si>
     <t>挂板</t>
@@ -166,7 +166,7 @@
     <t>挂板 24×420×600</t>
   </si>
   <si>
-    <t>7004-00543</t>
+    <t>7004-00703</t>
   </si>
   <si>
     <t>堵头板</t>
@@ -175,7 +175,7 @@
     <t>堵头板 8×620×990</t>
   </si>
   <si>
-    <t>7004-00544</t>
+    <t>7004-00704</t>
   </si>
   <si>
     <t>加强板</t>
@@ -184,7 +184,7 @@
     <t>板 8×303×530</t>
   </si>
   <si>
-    <t>7004-00545</t>
+    <t>7004-00705</t>
   </si>
   <si>
     <t>挑线架</t>
@@ -193,7 +193,7 @@
     <t>M60331.1A</t>
   </si>
   <si>
-    <t>7004-00546</t>
+    <t>7004-00706</t>
   </si>
   <si>
     <t>法兰板</t>
@@ -202,10 +202,7 @@
     <t>板 12×640×950</t>
   </si>
   <si>
-    <t>7004-00587</t>
-  </si>
-  <si>
-    <t>7004-00635</t>
+    <t>7004-00707</t>
   </si>
   <si>
     <t>贴板</t>
@@ -248,36 +245,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +283,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,7 +290,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,16 +327,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -339,23 +358,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,23 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,192 +421,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -633,11 +630,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,25 +693,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -686,30 +709,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,17 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -747,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,137 +747,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,7 +911,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1255,12 +1242,13 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="18.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="30.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
@@ -1335,7 +1323,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T2" s="8"/>
@@ -1383,7 +1371,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T3" s="8"/>
@@ -1431,7 +1419,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="8"/>
@@ -1479,7 +1467,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="8"/>
@@ -1531,7 +1519,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T6" s="8"/>
@@ -1583,7 +1571,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T7" s="8"/>
@@ -1635,7 +1623,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T8" s="8"/>
@@ -1687,7 +1675,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T9" s="8"/>
@@ -1737,7 +1725,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T10" s="8"/>
@@ -1789,7 +1777,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T11" s="8"/>
@@ -1816,19 +1804,17 @@
         <v>43</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="K12" s="8"/>
+      <c r="L12" s="12">
         <v>4.99</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f t="shared" si="0"/>
         <v>59.88</v>
       </c>
@@ -1841,7 +1827,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T12" s="8"/>
@@ -1874,9 +1860,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="6">
         <v>5.4</v>
       </c>
@@ -1893,7 +1877,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T13" s="8"/>
@@ -1926,9 +1910,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="6">
         <v>15.1</v>
       </c>
@@ -1945,7 +1927,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="8"/>
@@ -1978,9 +1960,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="6">
         <v>16.67</v>
       </c>
@@ -1997,7 +1977,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T15" s="8"/>
@@ -2030,9 +2010,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="6">
         <v>4.6</v>
       </c>
@@ -2049,7 +2027,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T16" s="8"/>
@@ -2101,7 +2079,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="8"/>
@@ -2134,9 +2112,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6">
         <v>37.3</v>
       </c>
@@ -2153,27 +2129,27 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" ht="15.6" spans="1:18">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -2183,6 +2159,9 @@
       </c>
       <c r="J19" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
       </c>
       <c r="L19" s="6">
         <v>30.7</v>
